--- a/MyThreeApplication/assets/texts/texts.xlsx
+++ b/MyThreeApplication/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="51">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t xml:space="preserve">Menu Element &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9</t>
   </si>
 </sst>
 </file>
@@ -1408,7 +1411,9 @@
       </c>
       <c r="G4"/>
       <c r="H4"/>
-      <c r="I4"/>
+      <c r="I4" t="s">
+        <v>50</v>
+      </c>
       <c r="J4"/>
       <c r="L4" s="4" t="s">
         <v>9</v>
